--- a/home/Annotations/Annotations.xlsx
+++ b/home/Annotations/Annotations.xlsx
@@ -17,7 +17,7 @@
     <sheet name="E8.0" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="E8.25" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="E8.5" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="MixedGastrulation" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="mixed_gastrulation" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,8 +109,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,51 +138,51 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:A16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -200,104 +205,104 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:A16"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">A2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">A3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">A5+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
@@ -305,7 +310,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -321,63 +326,63 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A4:A16"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -393,78 +398,78 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A4:A16"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -480,88 +485,88 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A4:A16"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -577,98 +582,98 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="A4:A16 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -684,98 +689,98 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="A4:A16 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -791,121 +796,121 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:A16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
       </c>
@@ -913,7 +918,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -929,146 +934,146 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:A16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">A2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">A3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">A5+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <f aca="false">A20+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <f aca="false">A21+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <f aca="false">A22+1</f>
         <v>21</v>
       </c>
@@ -1076,7 +1081,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1092,182 +1097,182 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A4:A16 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">A2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">A3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">A5+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">A6+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">A7+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">A8+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">A9+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">A10+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">A11+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">A12+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">A13+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">A14+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">A15+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <f aca="false">A20+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <f aca="false">A21+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <f aca="false">A22+1</f>
         <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <f aca="false">A23+1</f>
         <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <f aca="false">A24+1</f>
         <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <f aca="false">A25+1</f>
         <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <f aca="false">A26+1</f>
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <f aca="false">A27+1</f>
         <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <f aca="false">A28+1</f>
         <v>27</v>
       </c>
@@ -1275,7 +1280,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
